--- a/02_MasterWifoMannheim/99_Backup/Course44.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course44.xlsx
@@ -1,145 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD3D0DB4B639A2011598118B254ABFFF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A82E30-748C-408F-A169-A2B4D917DC27}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>ACC 510 Jahresabschluss</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t>Nach einem Überblick über Begriff und System der Bilanzierung (GoB) werden zunächst die systematisch und beispielhaft erarbeitet. (immateriellen) Vermögensgegenständen und deren Zurechnung, die sowie aktive Rechnungsabgrenzungsposten. Azum Verbindlichkeitsbegriff, Passivierungszeitpunkt und zu Drohverlustrückstellungen sowie passiven Rechnungsabgrenzungsposten diskutiert. Zuletzt werden die mit einem Fokus auf die die Absetzung für Abnutzung und den Teilwert thematisiert.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Die Studierenden erlangen detailliertes Wissen bezüglich der und Bewertungsnormen nach handelsrechtlichen GoB. Die Studierenden sind in der Lage, die Bilanzierungsvorschriften darzustellen, aus bilanztheoretischer kritisch zu würdigen. Außerdem können die Bilanzierungssachverhalte durch Bezug zu kodifizierten Rechtsprechung des Bundesfinanzhofs und einem breiten und einer Lösung zuführen. Die vorgestellten Fallstudien diskutiert und gewürdigt. Dabei erwerben die Studierenden durch das Erarbeiten und Präsentieren von Lösungen in Gruppenarbeit die zu analysieren und sie in strukturierter und verständlicher Präsentation werden Kompetenzen wie Teamwork und Leadership gestärkt.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht:</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung:</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung 2 6 Praxis-Fallstudien 2 2 Übung 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Prüfungsform und –umfang</t>
-  </si>
-  <si>
-    <t>Bearbeitung und Präsentation einer Fallstudie (25%), Schriftliche Klausur (90 Minuten, 75%)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Jens Wüstemann (Vorlesung und Fallstudien)</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL, LL.M.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>ACC 512</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,151 +420,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACC 510 Jahresabschluss</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nach einem Überblick über Begriff und System der Bilanzierung (GoB) werden zunächst die systematisch und beispielhaft erarbeitet. (immateriellen) Vermögensgegenständen und deren Zurechnung, die sowie aktive Rechnungsabgrenzungsposten. Azum Verbindlichkeitsbegriff, Passivierungszeitpunkt und zu Drohverlustrückstellungen sowie passiven Rechnungsabgrenzungsposten diskutiert. Zuletzt werden die mit einem Fokus auf die die Absetzung für Abnutzung und den Teilwert thematisiert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Die Studierenden erlangen detailliertes Wissen bezüglich der und Bewertungsnormen nach handelsrechtlichen GoB. Die Studierenden sind in der Lage, die Bilanzierungsvorschriften darzustellen, aus bilanztheoretischer kritisch zu würdigen. Außerdem können die Bilanzierungssachverhalte durch Bezug zu kodifizierten Rechtsprechung des Bundesfinanzhofs und einem breiten und einer Lösung zuführen. Die vorgestellten Fallstudien diskutiert und gewürdigt. Dabei erwerben die Studierenden durch das Erarbeiten und Präsentieren von Lösungen in Gruppenarbeit die zu analysieren und sie in strukturierter und verständlicher Präsentation werden Kompetenzen wie Teamwork und Leadership gestärkt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACC 512</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung:</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung 2 6 Praxis-Fallstudien 2 2 Übung 2 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Prüfungsform und –umfang</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bearbeitung und Präsentation einer Fallstudie (25%), Schriftliche Klausur (90 Minuten, 75%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Jens Wüstemann (Vorlesung und Fallstudien)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
